--- a/src/main/java/com/midas/qa/testdata/Data.xlsx
+++ b/src/main/java/com/midas/qa/testdata/Data.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suresh\eclipse-workspace\Midas_1\src\main\java\com\midas\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suresh\eclipse-workspace\Midas\src\main\java\com\midas\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D285CFC-3057-46E2-8C0D-78A5334D8A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D5754-A3FE-46F2-9085-7799FEE29147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="3" r:id="rId2"/>
+    <sheet name="login" sheetId="3" r:id="rId1"/>
+    <sheet name="NounModifier" sheetId="6" r:id="rId2"/>
     <sheet name="SearchData" sheetId="4" r:id="rId3"/>
+    <sheet name="RequestData" sheetId="7" r:id="rId4"/>
+    <sheet name="TestData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,55 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Cris</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t>Mukta</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Ebay</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>anagold requestor</t>
   </si>
@@ -86,14 +40,296 @@
     <t>Welcome@123</t>
   </si>
   <si>
-    <t>Search data</t>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>Search Data [Data should be in caps]</t>
+  </si>
+  <si>
+    <t>1600 - SGO Mining</t>
+  </si>
+  <si>
+    <t>ERP Success</t>
+  </si>
+  <si>
+    <t>CLEANER,ANY</t>
+  </si>
+  <si>
+    <t>CLIP,ALLIGATOR</t>
+  </si>
+  <si>
+    <t>COUPLING,ANY</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>1SNA166627R2200</t>
+  </si>
+  <si>
+    <t>ORICA</t>
+  </si>
+  <si>
+    <t>SANDVIK</t>
+  </si>
+  <si>
+    <t>CATERPILLAR</t>
+  </si>
+  <si>
+    <t>00051174</t>
+  </si>
+  <si>
+    <t>00051362</t>
+  </si>
+  <si>
+    <t>00051603</t>
+  </si>
+  <si>
+    <t>00043571</t>
+  </si>
+  <si>
+    <t>1100 - Marigold Mining</t>
+  </si>
+  <si>
+    <t>2011 - Anagold Madencilik AS</t>
+  </si>
+  <si>
+    <t>verifyNounModifierFilter</t>
+  </si>
+  <si>
+    <t>verifyPartNumberFilter</t>
+  </si>
+  <si>
+    <t>BLOCK,TERMINAL</t>
+  </si>
+  <si>
+    <t>verifyPlantFilter</t>
+  </si>
+  <si>
+    <t>verifyStatusFilter</t>
+  </si>
+  <si>
+    <t>verifyManufactFilter</t>
+  </si>
+  <si>
+    <t>additionalSettingsMaterialNumber</t>
+  </si>
+  <si>
+    <t>additionalSettingsRequestNumber</t>
+  </si>
+  <si>
+    <t>verifyERPFieldsIndustrySectorFilter</t>
+  </si>
+  <si>
+    <t>M - MINING</t>
+  </si>
+  <si>
+    <t>1700 - Explosives &amp; Accesso</t>
+  </si>
+  <si>
+    <t>1600 - Electrical Parts</t>
+  </si>
+  <si>
+    <t>1100 - Brakes</t>
+  </si>
+  <si>
+    <t>verifyERPFieldsMaterialGroupFilter</t>
+  </si>
+  <si>
+    <t>verifyERPFieldsMaterialTypeFilter</t>
+  </si>
+  <si>
+    <t>SERV - Service Materials</t>
+  </si>
+  <si>
+    <t>ZROT - Rotable Spares</t>
+  </si>
+  <si>
+    <t>HIBE - Operating Supplies</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>verifyERPFieldsValuationTypeFilter</t>
+  </si>
+  <si>
+    <t>verifyERPFieldsCriticalScoreFilter</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>verifyERPFieldsDemandEstYearlyDemandFilter</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>verifyERPFieldsDemandQtyOrdersFilter</t>
+  </si>
+  <si>
+    <t>verifyERPFieldsDemandQtyPerOrderFilter</t>
+  </si>
+  <si>
+    <t>206 - Uzeyir DOGAN</t>
+  </si>
+  <si>
+    <t>verifyPurchasingGroupFilter</t>
+  </si>
+  <si>
+    <t>209 - Canan ÇINAR</t>
+  </si>
+  <si>
+    <t>A - Significant material</t>
+  </si>
+  <si>
+    <t>B - Material - Medium Significance</t>
+  </si>
+  <si>
+    <t>verifyABCIndicatorFilter</t>
+  </si>
+  <si>
+    <t>verifyLotSizeProcedureFilter</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>verifyMaterialStatusCodeFilter</t>
+  </si>
+  <si>
+    <t>161 - MRP_SANTOY</t>
+  </si>
+  <si>
+    <t>160 - MRP_SEABEE</t>
+  </si>
+  <si>
+    <t>verifyMRPControllerFilter</t>
+  </si>
+  <si>
+    <t>verifyMRPGroupFilter</t>
+  </si>
+  <si>
+    <t>0000 - External procurement (blank)</t>
+  </si>
+  <si>
+    <t>HNDO - Handover MRP Purchase Requisitions</t>
+  </si>
+  <si>
+    <t>verifyMRPTypeFilter</t>
+  </si>
+  <si>
+    <t>ND - No planning</t>
+  </si>
+  <si>
+    <t>V1 - Manual Reord.Point w. Ext.Reqs</t>
+  </si>
+  <si>
+    <t>MG01 - Main Warehouse </t>
+  </si>
+  <si>
+    <t>SG6A - Surface&amp;Mill WH</t>
+  </si>
+  <si>
+    <t>verifyStorageLocationFilter</t>
+  </si>
+  <si>
+    <t>Search Words</t>
+  </si>
+  <si>
+    <t>Discription of noun and Modifier</t>
+  </si>
+  <si>
+    <t>BAND,TENSION</t>
+  </si>
+  <si>
+    <t>A long, flexible band that can be stretched as needed and used as a retainer</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>B.UOM</t>
+  </si>
+  <si>
+    <t>TYPE		
+FORM		
+PACKAGE TYPE		
+TRADE NAME		
+PACKAGE SIZE		
+SIZE		
+DIAMETER		
+WIDTH		
+LENGTH		
+THICKNESS		
+COLOR		
+ADDITIONAL INFORMATION</t>
+  </si>
+  <si>
+    <t>A material equipped to have the capacity or tendency to absorb a substance without reflecting it</t>
+  </si>
+  <si>
+    <t>ABSORBENT,ANY</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>SIZE		
+WIDTH		
+LENGTH		
+THICKNESS		
+MATERIAL		
+TYPE		
+CONNECTION TYPE		
+ADDITIONAL INFORMATION</t>
+  </si>
+  <si>
+    <t>Duplicate Manufacturer part number</t>
+  </si>
+  <si>
+    <t>0 10 205</t>
+  </si>
+  <si>
+    <t>0 32 024-24</t>
+  </si>
+  <si>
+    <t>Tag Number</t>
+  </si>
+  <si>
+    <t>6919-P-03A,6919-P-03B-PUSS</t>
+  </si>
+  <si>
+    <t>6919-P-03A,6919-P-03B-PUAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,19 +345,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF313336"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1C14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1C1C14"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF313336"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,9 +425,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,77 +756,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -508,10 +775,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -519,19 +786,410 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D75DB64-F69A-43DA-B4EC-9AF5DDF0B2EC}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="252" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871EE54D-8241-46C7-AA31-489F5446DC0A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W18"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="15" customWidth="1"/>
+    <col min="9" max="9" width="29" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3001859</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>276128</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3017927</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8">
+        <v>570519105</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1032931</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>11064</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1010667</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A794EC79-F968-4136-A96A-73A113960C0D}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F271CDC-6C5C-484C-8C54-085821656557}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.75" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/midas/qa/testdata/Data.xlsx
+++ b/src/main/java/com/midas/qa/testdata/Data.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suresh\eclipse-workspace\Midas\src\main\java\com\midas\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D5754-A3FE-46F2-9085-7799FEE29147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB99E37-BB5C-42BD-9D24-226325EAB6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
     <sheet name="NounModifier" sheetId="6" r:id="rId2"/>
     <sheet name="SearchData" sheetId="4" r:id="rId3"/>
     <sheet name="RequestData" sheetId="7" r:id="rId4"/>
-    <sheet name="TestData" sheetId="5" r:id="rId5"/>
+    <sheet name="RequestNo" sheetId="8" r:id="rId5"/>
+    <sheet name="RequestFlow" sheetId="9" r:id="rId6"/>
+    <sheet name="TestData" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -32,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
-  <si>
-    <t>anagold requestor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
   <si>
     <t>Welcome@123</t>
   </si>
@@ -324,12 +323,162 @@
   <si>
     <t>6919-P-03A,6919-P-03B-PUAX</t>
   </si>
+  <si>
+    <t>New Request Number</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>00052628</t>
+  </si>
+  <si>
+    <t>00052521</t>
+  </si>
+  <si>
+    <t>requestType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partNumber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">materialType  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMQType  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestModule  </t>
+  </si>
+  <si>
+    <t>RequestTo</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Extend</t>
+  </si>
+  <si>
+    <t>plant  (oly code )</t>
+  </si>
+  <si>
+    <t>OEM</t>
+  </si>
+  <si>
+    <t>Packaged</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>ZROT</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>ValuationType(all caps)</t>
+  </si>
+  <si>
+    <t>00052938     M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marigold requestor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marigold hod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marigold Inventory  </t>
+  </si>
+  <si>
+    <t>Marigold SCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seabee requestor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seabee hod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seabee Inventory  </t>
+  </si>
+  <si>
+    <t>Seabee SCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagold requestor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagold hod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagold Inventory  </t>
+  </si>
+  <si>
+    <t>Anagold SCM</t>
+  </si>
+  <si>
+    <t>Cataloguer1</t>
+  </si>
+  <si>
+    <t>Material Number</t>
+  </si>
+  <si>
+    <t>00052960     M</t>
+  </si>
+  <si>
+    <t>Marigold requestor</t>
+  </si>
+  <si>
+    <t>Marigold hod</t>
+  </si>
+  <si>
+    <t>Marigold Inventory</t>
+  </si>
+  <si>
+    <t>Seabee requestor</t>
+  </si>
+  <si>
+    <t>Seabee hod</t>
+  </si>
+  <si>
+    <t>Seabee Inventory</t>
+  </si>
+  <si>
+    <t>Anagold requestor</t>
+  </si>
+  <si>
+    <t>Anagold hod</t>
+  </si>
+  <si>
+    <t>Anagold Inventory</t>
+  </si>
+  <si>
+    <t>00052932     M</t>
+  </si>
+  <si>
+    <t>infoplusmdm69@gmail.com</t>
+  </si>
+  <si>
+    <t>Welcome@AWS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,21 +548,40 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -421,11 +589,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -476,9 +660,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -757,31 +950,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BBC991AA-E4DA-49B1-9F2A-5450DF6AD796}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D6A42D76-5FB5-4369-9B9B-E87F394344E9}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{86475345-B152-4B80-9A6D-9FE51E296021}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{9EA1A996-1BE4-423E-ACE8-E6C88CD9CB6C}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{9C6C6806-0DAE-49D1-9AC7-2EAEA951F533}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{3D250F05-0CA8-4E46-9F90-961E0DAA2A67}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{97F6CDFB-FF67-4219-BE6B-C6F2F6FDC473}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{2AF192A4-B334-4F3B-9FAE-DF5BD222E7AB}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{D67451A9-804B-48A4-8F07-F2B7D65CD073}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{EF729016-5781-42E9-AE24-B0D7866050DE}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{AD6E89BC-401A-42D3-A2CE-9EAEA087F80B}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{27AB2393-85FE-49DD-AB43-735FBBF97EAA}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{5D38C7B3-41E5-41A3-B2F4-09C70DE5DFBD}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{7872621B-1D37-4E41-971C-9BDE484946A7}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{CC370F36-6070-4CF3-84F7-2FB76E7E7F75}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{88F2AF8B-A9A7-4FFE-A6A8-B913A14EF0B3}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{0112DE2B-4AD1-4590-9596-C889BAC18BD3}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{25BAE672-31D8-49BE-A446-DC80C7BF0CC4}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{5D24E8B2-67A3-4FB2-9584-ACAF31752F49}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{CA39D732-732F-4F80-9AAB-72C6FD0B37F6}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{6EA6829E-8F09-43A9-B697-1F5012D0B371}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{B694056A-8C6C-4218-B836-0CFF383FE15D}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{7CAA37CE-5A21-4E76-9FA8-282B7476F860}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -795,43 +1258,43 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="330.75">
+      <c r="A2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="252">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="330.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="252" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +1311,7 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="31.375" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.375" style="15" customWidth="1"/>
@@ -862,242 +1325,242 @@
     <col min="10" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="64.5">
       <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="I1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="M1" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="P1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="S1" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="V1" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="60">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>3001859</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>276128</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="3" customFormat="1" ht="72">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7">
         <v>3017927</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8">
         <v>570519105</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="3" customFormat="1" ht="36">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7">
         <v>1032931</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8">
         <v>11064</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7">
         <v>1010667</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3">
       <c r="C18" s="8"/>
     </row>
   </sheetData>
@@ -1110,43 +1573,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A794EC79-F968-4136-A96A-73A113960C0D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1155,6 +1622,156 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CA69D1-1B52-49F6-92CD-12A3788660E5}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.25" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5A85AF-26EE-4718-9E0B-18BDE6731034}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="24">
+        <v>2003348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2071</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F271CDC-6C5C-484C-8C54-085821656557}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1162,34 +1779,34 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
